--- a/Allfiles/Sample Answers/M02-Project Workbook-Sample Answer.xlsx
+++ b/Allfiles/Sample Answers/M02-Project Workbook-Sample Answer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Courses\Power Platform\PL-600\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CF4981-DCA3-498A-9FBA-C5C0C6527FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3517EA34-F78D-477D-AA2C-33848F496DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="3210" windowWidth="26475" windowHeight="13875" activeTab="2" xr2:uid="{A7FE3A90-ABDE-4482-A392-34584F34D645}"/>
+    <workbookView xWindow="7665" yWindow="5805" windowWidth="26475" windowHeight="13875" activeTab="2" xr2:uid="{A7FE3A90-ABDE-4482-A392-34584F34D645}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture diagram" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t>Description</t>
   </si>
@@ -205,22 +205,13 @@
     <t>OOB</t>
   </si>
   <si>
-    <t>Basic Routing Rules</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
     <t>Configure</t>
   </si>
   <si>
-    <t>Case views</t>
-  </si>
-  <si>
     <t>Dynamics 365 Customer Service OmniChannel</t>
-  </si>
-  <si>
-    <t>PVA or OmniChannel</t>
   </si>
   <si>
     <t>Medium</t>
@@ -255,24 +246,10 @@
     <t>Dynamics 365 Customer Service SLAs</t>
   </si>
   <si>
-    <t>Power Pages with Customer Service template</t>
-  </si>
-  <si>
-    <t>AI Builder Sentiment Analysis
-Power Automate/ Azure Cognitive Services due to volume to analyze</t>
-  </si>
-  <si>
-    <t>Timer control on form</t>
-  </si>
-  <si>
     <t>Calculated column for days open with a View
 Possible Power BI visualizations</t>
   </si>
   <si>
-    <t>Need data model to support relationships from customer to bed and support agreement
-Need to understand the process for transfer of ownership</t>
-  </si>
-  <si>
     <t>Non-functional requirement
 Vague</t>
   </si>
@@ -286,7 +263,36 @@
     <t>Power BI - need to use TDS protocol and Direct Query</t>
   </si>
   <si>
-    <t>Generate Work Orders for each bed. Need to understand the rules for scheduling maintenance. Need to know the number of work orders per day. Assume 2-3 work orders per technician per day =&gt; too much for Power Automate?</t>
+    <t>Power Pages with Customer Self-Service template</t>
+  </si>
+  <si>
+    <t>AI Builder Sentiment Analysis
+Power Automate/ Azure Cognitive Services due to volume to analyze
+Possiblye Dynamics 365 Customer Service Omnichannel</t>
+  </si>
+  <si>
+    <t>Need data model to support relationships from customer to bed and support agreement
+Need to understand the process for transfer of ownership
+Business process flow?</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Customer Service
+Basic Routing Rules</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Customer Service
+Case views</t>
+  </si>
+  <si>
+    <t>PVA or Dynamics 365 Customer Service OmniChannel</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Field Service
+Generate Work Orders for each bed. Need to understand the rules for scheduling maintenance. Need to know the number of work orders per day. Assume 2-3 work orders per technician per day =&gt; too much for Power Automate?</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Customer Service SLAs
+Timer control on form</t>
   </si>
 </sst>
 </file>
@@ -741,7 +747,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,7 +784,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -894,6 +900,9 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -917,7 +926,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,13 +986,13 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F3" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -995,13 +1004,13 @@
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1013,13 +1022,13 @@
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1031,13 +1040,13 @@
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1049,13 +1058,13 @@
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1067,16 +1076,16 @@
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1085,13 +1094,13 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1103,13 +1112,13 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1121,13 +1130,13 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1139,13 +1148,13 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1157,13 +1166,13 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1175,16 +1184,16 @@
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1193,13 +1202,13 @@
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="F15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1211,13 +1220,13 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1229,16 +1238,16 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1247,10 +1256,10 @@
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>76</v>
@@ -1265,13 +1274,13 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1283,13 +1292,13 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1299,12 +1308,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1313,7 +1316,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005ACB5508BC758B4786C49CAB2DACE6CD" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8a2e46facb131d130239f4f997e1968c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f0391fbe-9a8a-45b6-bc24-0f8c01e689a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fb19b40636fba2f5359d6b37ae377b3b" ns2:_="">
     <xsd:import namespace="f0391fbe-9a8a-45b6-bc24-0f8c01e689a4"/>
@@ -1465,16 +1468,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768A339D-4F2D-4894-B120-C492B8BCE913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E922264D-C5DF-4756-B0E1-FB0BD4A17811}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1482,7 +1482,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE8BBED-39AD-43D2-88AD-54EE6D2D5B47}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1498,4 +1498,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768A339D-4F2D-4894-B120-C492B8BCE913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>